--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna5-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna5-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H2">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I2">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J2">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.727270999999999</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N2">
-        <v>23.181813</v>
+        <v>14.660201</v>
       </c>
       <c r="O2">
-        <v>0.4492515923977304</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P2">
-        <v>0.4784711627054499</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q2">
-        <v>1.331068793376</v>
+        <v>1.201004388700556</v>
       </c>
       <c r="R2">
-        <v>11.979619140384</v>
+        <v>10.809039498305</v>
       </c>
       <c r="S2">
-        <v>0.04528449132087289</v>
+        <v>0.05907260184175309</v>
       </c>
       <c r="T2">
-        <v>0.05344132590597894</v>
+        <v>0.06573315502761172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H3">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I3">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J3">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.292848333333334</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N3">
         <v>18.878545</v>
       </c>
       <c r="O3">
-        <v>0.3658564756519352</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P3">
-        <v>0.3896519817642028</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q3">
-        <v>1.083980882506667</v>
+        <v>1.546582846802778</v>
       </c>
       <c r="R3">
-        <v>9.755827942560002</v>
+        <v>13.919245621225</v>
       </c>
       <c r="S3">
-        <v>0.03687827639724333</v>
+        <v>0.07607022387596313</v>
       </c>
       <c r="T3">
-        <v>0.04352094790755535</v>
+        <v>0.08464729270633767</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +655,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H4">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I4">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J4">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,22 +685,22 @@
         <v>0.063684</v>
       </c>
       <c r="O4">
-        <v>0.001234163109255392</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P4">
-        <v>0.001314433755709007</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q4">
-        <v>0.003656650368</v>
+        <v>0.00521717018</v>
       </c>
       <c r="R4">
-        <v>0.03290985331200001</v>
+        <v>0.04695453162</v>
       </c>
       <c r="S4">
-        <v>0.0001244034513296466</v>
+        <v>0.00025661173238281</v>
       </c>
       <c r="T4">
-        <v>0.000146811528459675</v>
+        <v>0.000285545214883372</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +717,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H5">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I5">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J5">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.151199</v>
+        <v>0.771625</v>
       </c>
       <c r="N5">
-        <v>6.302398</v>
+        <v>1.54325</v>
       </c>
       <c r="O5">
-        <v>0.183205839255817</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P5">
-        <v>0.1300810984409417</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q5">
-        <v>0.542812934944</v>
+        <v>0.1896409902083333</v>
       </c>
       <c r="R5">
-        <v>3.256877609664</v>
+        <v>1.13784594125</v>
       </c>
       <c r="S5">
-        <v>0.01846712037999487</v>
+        <v>0.009327681741091283</v>
       </c>
       <c r="T5">
-        <v>0.0145289976028704</v>
+        <v>0.006919597589170966</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -779,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.172256</v>
+        <v>1.036691</v>
       </c>
       <c r="H6">
-        <v>0.516768</v>
+        <v>3.110073</v>
       </c>
       <c r="I6">
-        <v>0.1007998459820299</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J6">
-        <v>0.1116918428350044</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.007773333333333333</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N6">
-        <v>0.02332</v>
+        <v>14.660201</v>
       </c>
       <c r="O6">
-        <v>0.0004519295852621654</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P6">
-        <v>0.0004813233336965963</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q6">
-        <v>0.001339003306666667</v>
+        <v>5.066032811630334</v>
       </c>
       <c r="R6">
-        <v>0.01205102976</v>
+        <v>45.594295304673</v>
       </c>
       <c r="S6">
-        <v>4.555443258914891E-05</v>
+        <v>0.2491778897848063</v>
       </c>
       <c r="T6">
-        <v>5.375989014006061E-05</v>
+        <v>0.2772731917675718</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +853,10 @@
         <v>3.110073</v>
       </c>
       <c r="I7">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J7">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.727270999999999</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N7">
-        <v>23.181813</v>
+        <v>18.878545</v>
       </c>
       <c r="O7">
-        <v>0.4492515923977304</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P7">
-        <v>0.4784711627054499</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q7">
-        <v>8.010792300260999</v>
+        <v>6.523739231531666</v>
       </c>
       <c r="R7">
-        <v>72.09713070234899</v>
+        <v>58.713653083785</v>
       </c>
       <c r="S7">
-        <v>0.2725363679170946</v>
+        <v>0.3208766377287395</v>
       </c>
       <c r="T7">
-        <v>0.3216267740734443</v>
+        <v>0.357056115948051</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +915,40 @@
         <v>3.110073</v>
       </c>
       <c r="I8">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J8">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>6.292848333333334</v>
+        <v>0.021228</v>
       </c>
       <c r="N8">
-        <v>18.878545</v>
+        <v>0.063684</v>
       </c>
       <c r="O8">
-        <v>0.3658564756519352</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P8">
-        <v>0.3896519817642028</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q8">
-        <v>6.523739231531668</v>
+        <v>0.022006876548</v>
       </c>
       <c r="R8">
-        <v>58.713653083785</v>
+        <v>0.198061888932</v>
       </c>
       <c r="S8">
-        <v>0.2219451121385298</v>
+        <v>0.001082430229507467</v>
       </c>
       <c r="T8">
-        <v>0.261922806794721</v>
+        <v>0.001204476387774359</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +977,45 @@
         <v>3.110073</v>
       </c>
       <c r="I9">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J9">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.021228</v>
+        <v>0.771625</v>
       </c>
       <c r="N9">
-        <v>0.063684</v>
+        <v>1.54325</v>
       </c>
       <c r="O9">
-        <v>0.001234163109255392</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P9">
-        <v>0.001314433755709007</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q9">
-        <v>0.022006876548</v>
+        <v>0.799936692875</v>
       </c>
       <c r="R9">
-        <v>0.198061888932</v>
+        <v>4.79962015725</v>
       </c>
       <c r="S9">
-        <v>0.0007486992520573025</v>
+        <v>0.03934568616184753</v>
       </c>
       <c r="T9">
-        <v>0.0008835581358581931</v>
+        <v>0.0291879936158655</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1027,60 +1024,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4156905</v>
+      </c>
+      <c r="H10">
+        <v>0.831381</v>
+      </c>
+      <c r="I10">
+        <v>0.2447902369039089</v>
+      </c>
+      <c r="J10">
+        <v>0.1776926317427335</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.036691</v>
-      </c>
-      <c r="H10">
-        <v>3.110073</v>
-      </c>
-      <c r="I10">
-        <v>0.6066453019398833</v>
-      </c>
-      <c r="J10">
-        <v>0.6721967782861762</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.151199</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N10">
-        <v>6.302398</v>
+        <v>14.660201</v>
       </c>
       <c r="O10">
-        <v>0.183205839255817</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P10">
-        <v>0.1300810984409417</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q10">
-        <v>3.266819642509</v>
+        <v>2.0313687612635</v>
       </c>
       <c r="R10">
-        <v>19.600917855054</v>
+        <v>12.188212567581</v>
       </c>
       <c r="S10">
-        <v>0.1111409616724948</v>
+        <v>0.09991490385620307</v>
       </c>
       <c r="T10">
-        <v>0.08744009528792795</v>
+        <v>0.07412033847595074</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1089,55 +1086,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4156905</v>
+      </c>
+      <c r="H11">
+        <v>0.831381</v>
+      </c>
+      <c r="I11">
+        <v>0.2447902369039089</v>
+      </c>
+      <c r="J11">
+        <v>0.1776926317427335</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.036691</v>
-      </c>
-      <c r="H11">
-        <v>3.110073</v>
-      </c>
-      <c r="I11">
-        <v>0.6066453019398833</v>
-      </c>
-      <c r="J11">
-        <v>0.6721967782861762</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.007773333333333333</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N11">
-        <v>0.02332</v>
+        <v>18.878545</v>
       </c>
       <c r="O11">
-        <v>0.0004519295852621654</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P11">
-        <v>0.0004813233336965963</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q11">
-        <v>0.008058544706666667</v>
+        <v>2.6158772701075</v>
       </c>
       <c r="R11">
-        <v>0.07252690235999999</v>
+        <v>15.695263620645</v>
       </c>
       <c r="S11">
-        <v>0.0002741609597069326</v>
+        <v>0.1286645393620458</v>
       </c>
       <c r="T11">
-        <v>0.0003235439942248141</v>
+        <v>0.09544781448313482</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H12">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I12">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J12">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>7.727270999999999</v>
+        <v>0.021228</v>
       </c>
       <c r="N12">
-        <v>23.181813</v>
+        <v>0.063684</v>
       </c>
       <c r="O12">
-        <v>0.4492515923977304</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P12">
-        <v>0.4784711627054499</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q12">
-        <v>3.8632066364595</v>
+        <v>0.008824277934000001</v>
       </c>
       <c r="R12">
-        <v>23.179239818757</v>
+        <v>0.052945667604</v>
       </c>
       <c r="S12">
-        <v>0.131430733159763</v>
+        <v>0.0004340309343083656</v>
       </c>
       <c r="T12">
-        <v>0.1034030627260267</v>
+        <v>0.0003219791894737629</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,232 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H13">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I13">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J13">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.292848333333334</v>
+        <v>0.771625</v>
       </c>
       <c r="N13">
-        <v>18.878545</v>
+        <v>1.54325</v>
       </c>
       <c r="O13">
-        <v>0.3658564756519352</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P13">
-        <v>0.3896519817642028</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q13">
-        <v>3.146074913584167</v>
+        <v>0.3207571820625</v>
       </c>
       <c r="R13">
-        <v>18.876449481505</v>
+        <v>1.28302872825</v>
       </c>
       <c r="S13">
-        <v>0.1070330871161621</v>
+        <v>0.01577676275135164</v>
       </c>
       <c r="T13">
-        <v>0.08420822706192646</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.4999445</v>
-      </c>
-      <c r="H14">
-        <v>0.999889</v>
-      </c>
-      <c r="I14">
-        <v>0.2925548520780869</v>
-      </c>
-      <c r="J14">
-        <v>0.2161113788788194</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.021228</v>
-      </c>
-      <c r="N14">
-        <v>0.063684</v>
-      </c>
-      <c r="O14">
-        <v>0.001234163109255392</v>
-      </c>
-      <c r="P14">
-        <v>0.001314433755709007</v>
-      </c>
-      <c r="Q14">
-        <v>0.010612821846</v>
-      </c>
-      <c r="R14">
-        <v>0.063676931076</v>
-      </c>
-      <c r="S14">
-        <v>0.000361060405868443</v>
-      </c>
-      <c r="T14">
-        <v>0.0002840640913911386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.4999445</v>
-      </c>
-      <c r="H15">
-        <v>0.999889</v>
-      </c>
-      <c r="I15">
-        <v>0.2925548520780869</v>
-      </c>
-      <c r="J15">
-        <v>0.2161113788788194</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>3.151199</v>
-      </c>
-      <c r="N15">
-        <v>6.302398</v>
-      </c>
-      <c r="O15">
-        <v>0.183205839255817</v>
-      </c>
-      <c r="P15">
-        <v>0.1300810984409417</v>
-      </c>
-      <c r="Q15">
-        <v>1.5754246084555</v>
-      </c>
-      <c r="R15">
-        <v>6.301698433822001</v>
-      </c>
-      <c r="S15">
-        <v>0.0535977572033273</v>
-      </c>
-      <c r="T15">
-        <v>0.02811200555014335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.4999445</v>
-      </c>
-      <c r="H16">
-        <v>0.999889</v>
-      </c>
-      <c r="I16">
-        <v>0.2925548520780869</v>
-      </c>
-      <c r="J16">
-        <v>0.2161113788788194</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.007773333333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.02332</v>
-      </c>
-      <c r="O16">
-        <v>0.0004519295852621654</v>
-      </c>
-      <c r="P16">
-        <v>0.0004813233336965963</v>
-      </c>
-      <c r="Q16">
-        <v>0.003886235246666667</v>
-      </c>
-      <c r="R16">
-        <v>0.02331741148</v>
-      </c>
-      <c r="S16">
-        <v>0.000132214192966084</v>
-      </c>
-      <c r="T16">
-        <v>0.0001040194493317215</v>
+        <v>0.007802499594174117</v>
       </c>
     </row>
   </sheetData>
